--- a/state_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
+++ b/state_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U205"/>
+  <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.455309799395701</v>
+        <v>0.455336350991542</v>
       </c>
       <c r="H2" t="n">
         <v>2.1</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0090949196283378</v>
+        <v>0.009101930649565999</v>
       </c>
       <c r="H3" t="n">
         <v>0.022</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0090949196283378</v>
+        <v>0.009101930649565999</v>
       </c>
       <c r="H4" t="n">
         <v>0.022</v>
@@ -813,13 +813,13 @@
         <v>613</v>
       </c>
       <c r="G5" t="n">
-        <v>1796.68351371603</v>
+        <v>1819.82275693752</v>
       </c>
       <c r="H5" t="n">
         <v>16200</v>
       </c>
       <c r="I5" t="n">
-        <v>11857.87418</v>
+        <v>11880</v>
       </c>
       <c r="J5" t="n">
         <v>52.6315789473684</v>
@@ -898,13 +898,13 @@
         <v>613</v>
       </c>
       <c r="G6" t="n">
-        <v>1796.68351371603</v>
+        <v>1819.82275693752</v>
       </c>
       <c r="H6" t="n">
         <v>16200</v>
       </c>
       <c r="I6" t="n">
-        <v>11857.87418</v>
+        <v>11880</v>
       </c>
       <c r="J6" t="n">
         <v>52.6315789473684</v>
@@ -983,13 +983,13 @@
         <v>613</v>
       </c>
       <c r="G7" t="n">
-        <v>1796.68351371603</v>
+        <v>1819.82275693752</v>
       </c>
       <c r="H7" t="n">
         <v>16200</v>
       </c>
       <c r="I7" t="n">
-        <v>11857.87418</v>
+        <v>11880</v>
       </c>
       <c r="J7" t="n">
         <v>52.6315789473684</v>
@@ -1068,13 +1068,13 @@
         <v>613</v>
       </c>
       <c r="G8" t="n">
-        <v>1796.68351371603</v>
+        <v>1819.82275693752</v>
       </c>
       <c r="H8" t="n">
         <v>16200</v>
       </c>
       <c r="I8" t="n">
-        <v>11857.87418</v>
+        <v>11880</v>
       </c>
       <c r="J8" t="n">
         <v>52.6315789473684</v>
@@ -1153,7 +1153,7 @@
         <v>0.008059999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0211149863060816</v>
+        <v>0.0211200793067024</v>
       </c>
       <c r="H9" t="n">
         <v>0.564539298049235</v>
@@ -1234,7 +1234,7 @@
         <v>0.008059999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0211149863060816</v>
+        <v>0.0211200793067024</v>
       </c>
       <c r="H10" t="n">
         <v>0.564539298049235</v>
@@ -1315,7 +1315,7 @@
         <v>0.274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.289630618021048</v>
+        <v>0.289673527459079</v>
       </c>
       <c r="H11" t="n">
         <v>0.761</v>
@@ -1396,7 +1396,7 @@
         <v>0.274</v>
       </c>
       <c r="G12" t="n">
-        <v>0.289630618021048</v>
+        <v>0.289673527459079</v>
       </c>
       <c r="H12" t="n">
         <v>0.761</v>
@@ -1473,7 +1473,7 @@
         <v>0.28</v>
       </c>
       <c r="G13" t="n">
-        <v>0.329666666666667</v>
+        <v>0.329687719298246</v>
       </c>
       <c r="H13" t="n">
         <v>1.88</v>
@@ -1550,7 +1550,7 @@
         <v>0.28</v>
       </c>
       <c r="G14" t="n">
-        <v>0.329666666666667</v>
+        <v>0.329687719298246</v>
       </c>
       <c r="H14" t="n">
         <v>1.88</v>
@@ -1939,7 +1939,7 @@
         <v>0.25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.445977850411641</v>
+        <v>0.446002840148903</v>
       </c>
       <c r="H19" t="n">
         <v>2.1</v>
@@ -2020,7 +2020,7 @@
         <v>0.008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0086721395221278</v>
+        <v>0.0086794361755265</v>
       </c>
       <c r="H20" t="n">
         <v>0.029</v>
@@ -2101,7 +2101,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0086721395221278</v>
+        <v>0.0086794361755265</v>
       </c>
       <c r="H21" t="n">
         <v>0.029</v>
@@ -2522,7 +2522,7 @@
         <v>0.00908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0111463795426835</v>
+        <v>0.0111504602257115</v>
       </c>
       <c r="H26" t="n">
         <v>0.07000000000000001</v>
@@ -2603,7 +2603,7 @@
         <v>0.00908</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0111463795426835</v>
+        <v>0.0111504602257115</v>
       </c>
       <c r="H27" t="n">
         <v>0.07000000000000001</v>
@@ -2684,7 +2684,7 @@
         <v>0.2985</v>
       </c>
       <c r="G28" t="n">
-        <v>0.285849087119996</v>
+        <v>0.285889851086125</v>
       </c>
       <c r="H28" t="n">
         <v>0.926</v>
@@ -2765,7 +2765,7 @@
         <v>0.2985</v>
       </c>
       <c r="G29" t="n">
-        <v>0.285849087119996</v>
+        <v>0.285889851086125</v>
       </c>
       <c r="H29" t="n">
         <v>0.926</v>
@@ -2842,7 +2842,7 @@
         <v>0.248</v>
       </c>
       <c r="G30" t="n">
-        <v>0.301661016949153</v>
+        <v>0.301681355932203</v>
       </c>
       <c r="H30" t="n">
         <v>0.967</v>
@@ -2919,7 +2919,7 @@
         <v>0.248</v>
       </c>
       <c r="G31" t="n">
-        <v>0.301661016949153</v>
+        <v>0.301681355932203</v>
       </c>
       <c r="H31" t="n">
         <v>0.967</v>
@@ -3308,7 +3308,7 @@
         <v>0.27</v>
       </c>
       <c r="G36" t="n">
-        <v>0.401592986616887</v>
+        <v>0.401620103140298</v>
       </c>
       <c r="H36" t="n">
         <v>1.62</v>
@@ -3389,7 +3389,7 @@
         <v>0.008</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0081433842352638</v>
+        <v>0.008146738871350199</v>
       </c>
       <c r="H37" t="n">
         <v>0.029</v>
@@ -3470,7 +3470,7 @@
         <v>0.008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0081433842352638</v>
+        <v>0.008146738871350199</v>
       </c>
       <c r="H38" t="n">
         <v>0.029</v>
@@ -3891,7 +3891,7 @@
         <v>0.008840000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0111523487258247</v>
+        <v>0.0111556010914441</v>
       </c>
       <c r="H43" t="n">
         <v>0.07000000000000001</v>
@@ -3972,7 +3972,7 @@
         <v>0.008840000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0111523487258247</v>
+        <v>0.0111556010914441</v>
       </c>
       <c r="H44" t="n">
         <v>0.07000000000000001</v>
@@ -4053,7 +4053,7 @@
         <v>0.267</v>
       </c>
       <c r="G45" t="n">
-        <v>0.301968642546935</v>
+        <v>0.30200191925398</v>
       </c>
       <c r="H45" t="n">
         <v>1.2547</v>
@@ -4064,7 +4064,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.04687</v>
+        <v>0.04729</v>
       </c>
       <c r="M45" t="n">
         <v>0.55137</v>
@@ -4134,7 +4134,7 @@
         <v>0.267</v>
       </c>
       <c r="G46" t="n">
-        <v>0.301968642546935</v>
+        <v>0.30200191925398</v>
       </c>
       <c r="H46" t="n">
         <v>1.2547</v>
@@ -4145,7 +4145,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.04687</v>
+        <v>0.04729</v>
       </c>
       <c r="M46" t="n">
         <v>0.55137</v>
@@ -4211,10 +4211,10 @@
         <v>0.208</v>
       </c>
       <c r="G47" t="n">
-        <v>0.319949152542373</v>
+        <v>0.319962711864407</v>
       </c>
       <c r="H47" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I47" t="n">
         <v>0.93865</v>
@@ -4222,13 +4222,13 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.058</v>
+        <v>0.05805</v>
       </c>
       <c r="M47" t="n">
-        <v>0.57564</v>
+        <v>0.57543</v>
       </c>
       <c r="N47" t="n">
-        <v>0.77542</v>
+        <v>0.77533</v>
       </c>
       <c r="O47" t="n">
         <v>1776199</v>
@@ -4288,10 +4288,10 @@
         <v>0.208</v>
       </c>
       <c r="G48" t="n">
-        <v>0.319949152542373</v>
+        <v>0.319962711864407</v>
       </c>
       <c r="H48" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I48" t="n">
         <v>0.93865</v>
@@ -4299,13 +4299,13 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.058</v>
+        <v>0.05805</v>
       </c>
       <c r="M48" t="n">
-        <v>0.57564</v>
+        <v>0.57543</v>
       </c>
       <c r="N48" t="n">
-        <v>0.77542</v>
+        <v>0.77533</v>
       </c>
       <c r="O48" t="n">
         <v>1776199</v>
@@ -4677,7 +4677,7 @@
         <v>0.25</v>
       </c>
       <c r="G53" t="n">
-        <v>0.46785181660649</v>
+        <v>0.467903157522256</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -4758,7 +4758,7 @@
         <v>0.008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0076010113539079</v>
+        <v>0.0076043659899943</v>
       </c>
       <c r="H54" t="n">
         <v>0.029</v>
@@ -4839,7 +4839,7 @@
         <v>0.008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0076010113539079</v>
+        <v>0.0076043659899943</v>
       </c>
       <c r="H55" t="n">
         <v>0.029</v>
@@ -5260,7 +5260,7 @@
         <v>0.00878</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0102174965560109</v>
+        <v>0.0102195765582377</v>
       </c>
       <c r="H60" t="n">
         <v>0.032056625071339</v>
@@ -5341,7 +5341,7 @@
         <v>0.00878</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0102174965560109</v>
+        <v>0.0102195765582377</v>
       </c>
       <c r="H61" t="n">
         <v>0.032056625071339</v>
@@ -5422,7 +5422,7 @@
         <v>0.18</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2855587031322</v>
+        <v>0.285586339719407</v>
       </c>
       <c r="H62" t="n">
         <v>1.2547</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.01388</v>
+        <v>0.01461</v>
       </c>
       <c r="M62" t="n">
         <v>0.53137</v>
@@ -5503,7 +5503,7 @@
         <v>0.18</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2855587031322</v>
+        <v>0.285586339719407</v>
       </c>
       <c r="H63" t="n">
         <v>1.2547</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.01388</v>
+        <v>0.01461</v>
       </c>
       <c r="M63" t="n">
         <v>0.53137</v>
@@ -5580,10 +5580,10 @@
         <v>0.208</v>
       </c>
       <c r="G64" t="n">
-        <v>0.308050847457627</v>
+        <v>0.308072881355932</v>
       </c>
       <c r="H64" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I64" t="n">
         <v>0.88465</v>
@@ -5591,13 +5591,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0375</v>
+        <v>0.03755</v>
       </c>
       <c r="M64" t="n">
-        <v>0.54986</v>
+        <v>0.54967</v>
       </c>
       <c r="N64" t="n">
-        <v>0.74082</v>
+        <v>0.74051</v>
       </c>
       <c r="O64" t="n">
         <v>1776199</v>
@@ -5657,10 +5657,10 @@
         <v>0.208</v>
       </c>
       <c r="G65" t="n">
-        <v>0.308050847457627</v>
+        <v>0.308072881355932</v>
       </c>
       <c r="H65" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I65" t="n">
         <v>0.88465</v>
@@ -5668,13 +5668,13 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0375</v>
+        <v>0.03755</v>
       </c>
       <c r="M65" t="n">
-        <v>0.54986</v>
+        <v>0.54967</v>
       </c>
       <c r="N65" t="n">
-        <v>0.74082</v>
+        <v>0.74051</v>
       </c>
       <c r="O65" t="n">
         <v>1776199</v>
@@ -6046,7 +6046,7 @@
         <v>0.3</v>
       </c>
       <c r="G70" t="n">
-        <v>0.488961352423373</v>
+        <v>0.489011600979229</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
@@ -6127,7 +6127,7 @@
         <v>0.007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0076364435716942</v>
+        <v>0.0076400232705601</v>
       </c>
       <c r="H71" t="n">
         <v>0.029</v>
@@ -6208,7 +6208,7 @@
         <v>0.007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0076364435716942</v>
+        <v>0.0076400232705601</v>
       </c>
       <c r="H72" t="n">
         <v>0.029</v>
@@ -6629,7 +6629,7 @@
         <v>0.00878</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0100358671447046</v>
+        <v>0.0100419479822808</v>
       </c>
       <c r="H77" t="n">
         <v>0.032056625071339</v>
@@ -6710,7 +6710,7 @@
         <v>0.00878</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0100358671447046</v>
+        <v>0.0100419479822808</v>
       </c>
       <c r="H78" t="n">
         <v>0.032056625071339</v>
@@ -6791,7 +6791,7 @@
         <v>0.23075</v>
       </c>
       <c r="G79" t="n">
-        <v>0.295283413334278</v>
+        <v>0.295298013858351</v>
       </c>
       <c r="H79" t="n">
         <v>1.2547</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00791</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="M79" t="n">
         <v>0.56558</v>
@@ -6872,7 +6872,7 @@
         <v>0.23075</v>
       </c>
       <c r="G80" t="n">
-        <v>0.295283413334278</v>
+        <v>0.295298013858351</v>
       </c>
       <c r="H80" t="n">
         <v>1.2547</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00791</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="M80" t="n">
         <v>0.56558</v>
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.2445</v>
+        <v>0.24425</v>
       </c>
       <c r="G81" t="n">
-        <v>0.316633333333333</v>
+        <v>0.316636666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I81" t="n">
-        <v>0.856</v>
+        <v>0.8558</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6966,7 +6966,7 @@
         <v>0.5859</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7242</v>
+        <v>0.72411</v>
       </c>
       <c r="O81" t="n">
         <v>1776199</v>
@@ -7023,16 +7023,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.2445</v>
+        <v>0.24425</v>
       </c>
       <c r="G82" t="n">
-        <v>0.316633333333333</v>
+        <v>0.316636666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I82" t="n">
-        <v>0.856</v>
+        <v>0.8558</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7043,7 +7043,7 @@
         <v>0.5859</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7242</v>
+        <v>0.72411</v>
       </c>
       <c r="O82" t="n">
         <v>1776199</v>
@@ -7415,7 +7415,7 @@
         <v>0.33</v>
       </c>
       <c r="G87" t="n">
-        <v>0.485022117046216</v>
+        <v>0.485102681691497</v>
       </c>
       <c r="H87" t="n">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>0.0065</v>
       </c>
       <c r="G88" t="n">
-        <v>0.007894646660041501</v>
+        <v>0.007897595281561901</v>
       </c>
       <c r="H88" t="n">
         <v>0.029</v>
@@ -7577,7 +7577,7 @@
         <v>0.0065</v>
       </c>
       <c r="G89" t="n">
-        <v>0.007894646660041501</v>
+        <v>0.007897595281561901</v>
       </c>
       <c r="H89" t="n">
         <v>0.029</v>
@@ -7998,7 +7998,7 @@
         <v>0.00441</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0091952881084762</v>
+        <v>0.0092040914294352</v>
       </c>
       <c r="H94" t="n">
         <v>0.032056625071339</v>
@@ -8079,7 +8079,7 @@
         <v>0.00441</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0091952881084762</v>
+        <v>0.0092040914294352</v>
       </c>
       <c r="H95" t="n">
         <v>0.032056625071339</v>
@@ -8160,7 +8160,7 @@
         <v>0.20725</v>
       </c>
       <c r="G96" t="n">
-        <v>0.304493058654566</v>
+        <v>0.304512807007927</v>
       </c>
       <c r="H96" t="n">
         <v>1.2547</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.009889999999999999</v>
+        <v>0.01013</v>
       </c>
       <c r="M96" t="n">
         <v>0.57678</v>
@@ -8241,7 +8241,7 @@
         <v>0.20725</v>
       </c>
       <c r="G97" t="n">
-        <v>0.304493058654566</v>
+        <v>0.304512807007927</v>
       </c>
       <c r="H97" t="n">
         <v>1.2547</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.009889999999999999</v>
+        <v>0.01013</v>
       </c>
       <c r="M97" t="n">
         <v>0.57678</v>
@@ -8315,13 +8315,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.221</v>
+        <v>0.22075</v>
       </c>
       <c r="G98" t="n">
-        <v>0.324440960580419</v>
+        <v>0.32445866605952</v>
       </c>
       <c r="H98" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I98" t="n">
         <v>0.976</v>
@@ -8329,13 +8329,13 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.0385</v>
+        <v>0.03855</v>
       </c>
       <c r="M98" t="n">
-        <v>0.5959</v>
+        <v>0.59584</v>
       </c>
       <c r="N98" t="n">
-        <v>0.7375</v>
+        <v>0.73713</v>
       </c>
       <c r="O98" t="n">
         <v>1776199</v>
@@ -8392,13 +8392,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.221</v>
+        <v>0.22075</v>
       </c>
       <c r="G99" t="n">
-        <v>0.324440960580419</v>
+        <v>0.32445866605952</v>
       </c>
       <c r="H99" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I99" t="n">
         <v>0.976</v>
@@ -8406,13 +8406,13 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.0385</v>
+        <v>0.03855</v>
       </c>
       <c r="M99" t="n">
-        <v>0.5959</v>
+        <v>0.59584</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7375</v>
+        <v>0.73713</v>
       </c>
       <c r="O99" t="n">
         <v>1776199</v>
@@ -8784,7 +8784,7 @@
         <v>0.4</v>
       </c>
       <c r="G104" t="n">
-        <v>0.509917489607753</v>
+        <v>0.509996375822924</v>
       </c>
       <c r="H104" t="n">
         <v>2</v>
@@ -8865,7 +8865,7 @@
         <v>0.007</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0076934299980777</v>
+        <v>0.0076949622237178</v>
       </c>
       <c r="H105" t="n">
         <v>0.026</v>
@@ -8946,7 +8946,7 @@
         <v>0.007</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0076934299980777</v>
+        <v>0.0076949622237178</v>
       </c>
       <c r="H106" t="n">
         <v>0.026</v>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00381</v>
+        <v>0.00379</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0076343003837752</v>
+        <v>0.0076424074188441</v>
       </c>
       <c r="H111" t="n">
         <v>0.032056625071339</v>
@@ -9378,7 +9378,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00381</v>
+        <v>0.00379</v>
       </c>
       <c r="M111" t="n">
         <v>0.01485</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00381</v>
+        <v>0.00379</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0076343003837752</v>
+        <v>0.0076424074188441</v>
       </c>
       <c r="H112" t="n">
         <v>0.032056625071339</v>
@@ -9459,7 +9459,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00381</v>
+        <v>0.00379</v>
       </c>
       <c r="M112" t="n">
         <v>0.01485</v>
@@ -9529,7 +9529,7 @@
         <v>0.2401</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3169763919879</v>
+        <v>0.31699614034126</v>
       </c>
       <c r="H113" t="n">
         <v>1.2547</v>
@@ -9540,7 +9540,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.009889999999999999</v>
+        <v>0.01013</v>
       </c>
       <c r="M113" t="n">
         <v>0.58292</v>
@@ -9610,7 +9610,7 @@
         <v>0.2401</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3169763919879</v>
+        <v>0.31699614034126</v>
       </c>
       <c r="H114" t="n">
         <v>1.2547</v>
@@ -9621,7 +9621,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.009889999999999999</v>
+        <v>0.01013</v>
       </c>
       <c r="M114" t="n">
         <v>0.58292</v>
@@ -9684,27 +9684,27 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.2595</v>
+        <v>0.25925</v>
       </c>
       <c r="G115" t="n">
-        <v>0.335507627247086</v>
+        <v>0.335525332726187</v>
       </c>
       <c r="H115" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I115" t="n">
-        <v>0.865</v>
+        <v>0.8648</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.0385</v>
+        <v>0.03855</v>
       </c>
       <c r="M115" t="n">
-        <v>0.6076</v>
+        <v>0.60746</v>
       </c>
       <c r="N115" t="n">
-        <v>0.727</v>
+        <v>0.7269099999999999</v>
       </c>
       <c r="O115" t="n">
         <v>1776199</v>
@@ -9761,27 +9761,27 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.2595</v>
+        <v>0.25925</v>
       </c>
       <c r="G116" t="n">
-        <v>0.335507627247086</v>
+        <v>0.335525332726187</v>
       </c>
       <c r="H116" t="n">
-        <v>1.261</v>
+        <v>1.2608</v>
       </c>
       <c r="I116" t="n">
-        <v>0.865</v>
+        <v>0.8648</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.0385</v>
+        <v>0.03855</v>
       </c>
       <c r="M116" t="n">
-        <v>0.6076</v>
+        <v>0.60746</v>
       </c>
       <c r="N116" t="n">
-        <v>0.727</v>
+        <v>0.7269099999999999</v>
       </c>
       <c r="O116" t="n">
         <v>1776199</v>
@@ -10153,7 +10153,7 @@
         <v>0.39</v>
       </c>
       <c r="G121" t="n">
-        <v>0.485255819257958</v>
+        <v>0.485390757204896</v>
       </c>
       <c r="H121" t="n">
         <v>2</v>
@@ -10234,7 +10234,7 @@
         <v>0.007</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0083569806760827</v>
+        <v>0.0083578053596574</v>
       </c>
       <c r="H122" t="n">
         <v>0.026</v>
@@ -10315,7 +10315,7 @@
         <v>0.007</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0083569806760827</v>
+        <v>0.0083578053596574</v>
       </c>
       <c r="H123" t="n">
         <v>0.026</v>
@@ -10736,7 +10736,7 @@
         <v>0.00607</v>
       </c>
       <c r="G128" t="n">
-        <v>0.008821401473788701</v>
+        <v>0.0088290581180204</v>
       </c>
       <c r="H128" t="n">
         <v>0.032056625071339</v>
@@ -10817,7 +10817,7 @@
         <v>0.00607</v>
       </c>
       <c r="G129" t="n">
-        <v>0.008821401473788701</v>
+        <v>0.0088290581180204</v>
       </c>
       <c r="H129" t="n">
         <v>0.032056625071339</v>
@@ -10898,7 +10898,7 @@
         <v>0.286</v>
       </c>
       <c r="G130" t="n">
-        <v>0.326734725321233</v>
+        <v>0.326754473674594</v>
       </c>
       <c r="H130" t="n">
         <v>0.974</v>
@@ -10979,7 +10979,7 @@
         <v>0.286</v>
       </c>
       <c r="G131" t="n">
-        <v>0.326734725321233</v>
+        <v>0.326754473674594</v>
       </c>
       <c r="H131" t="n">
         <v>0.974</v>
@@ -11053,10 +11053,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.3165</v>
+        <v>0.31675</v>
       </c>
       <c r="G132" t="n">
-        <v>0.348140960580419</v>
+        <v>0.348161999392854</v>
       </c>
       <c r="H132" t="n">
         <v>0.985</v>
@@ -11073,7 +11073,7 @@
         <v>0.6715</v>
       </c>
       <c r="N132" t="n">
-        <v>0.727</v>
+        <v>0.7269099999999999</v>
       </c>
       <c r="O132" t="n">
         <v>1776199</v>
@@ -11130,10 +11130,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.3165</v>
+        <v>0.31675</v>
       </c>
       <c r="G133" t="n">
-        <v>0.348140960580419</v>
+        <v>0.348161999392854</v>
       </c>
       <c r="H133" t="n">
         <v>0.985</v>
@@ -11150,7 +11150,7 @@
         <v>0.6715</v>
       </c>
       <c r="N133" t="n">
-        <v>0.727</v>
+        <v>0.7269099999999999</v>
       </c>
       <c r="O133" t="n">
         <v>1776199</v>
@@ -11522,7 +11522,7 @@
         <v>0.39</v>
       </c>
       <c r="G138" t="n">
-        <v>0.404406356314687</v>
+        <v>0.404518127521966</v>
       </c>
       <c r="H138" t="n">
         <v>1.2</v>
@@ -11603,7 +11603,7 @@
         <v>0.007</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0083858371225565</v>
+        <v>0.0083866604766334</v>
       </c>
       <c r="H139" t="n">
         <v>0.028</v>
@@ -11684,7 +11684,7 @@
         <v>0.007</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0083858371225565</v>
+        <v>0.0083866604766334</v>
       </c>
       <c r="H140" t="n">
         <v>0.028</v>
@@ -12105,7 +12105,7 @@
         <v>0.00868</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0092726575422833</v>
+        <v>0.0092799112052396</v>
       </c>
       <c r="H145" t="n">
         <v>0.0310105971287162</v>
@@ -12186,7 +12186,7 @@
         <v>0.00868</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0092726575422833</v>
+        <v>0.0092799112052396</v>
       </c>
       <c r="H146" t="n">
         <v>0.0310105971287162</v>
@@ -12267,7 +12267,7 @@
         <v>0.286</v>
       </c>
       <c r="G147" t="n">
-        <v>0.333808629877428</v>
+        <v>0.333832157129005</v>
       </c>
       <c r="H147" t="n">
         <v>0.974</v>
@@ -12348,7 +12348,7 @@
         <v>0.286</v>
       </c>
       <c r="G148" t="n">
-        <v>0.333808629877428</v>
+        <v>0.333832157129005</v>
       </c>
       <c r="H148" t="n">
         <v>0.974</v>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.3165</v>
+        <v>0.31675</v>
       </c>
       <c r="G149" t="n">
-        <v>0.356357627247086</v>
+        <v>0.356361999392854</v>
       </c>
       <c r="H149" t="n">
         <v>0.985</v>
@@ -12442,7 +12442,7 @@
         <v>0.6715</v>
       </c>
       <c r="N149" t="n">
-        <v>0.727</v>
+        <v>0.7269099999999999</v>
       </c>
       <c r="O149" t="n">
         <v>1776199</v>
@@ -12499,10 +12499,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.3165</v>
+        <v>0.31675</v>
       </c>
       <c r="G150" t="n">
-        <v>0.356357627247086</v>
+        <v>0.356361999392854</v>
       </c>
       <c r="H150" t="n">
         <v>0.985</v>
@@ -12519,7 +12519,7 @@
         <v>0.6715</v>
       </c>
       <c r="N150" t="n">
-        <v>0.727</v>
+        <v>0.7269099999999999</v>
       </c>
       <c r="O150" t="n">
         <v>1776199</v>
@@ -12891,7 +12891,7 @@
         <v>0.3</v>
       </c>
       <c r="G155" t="n">
-        <v>0.36821929531572</v>
+        <v>0.368384616922919</v>
       </c>
       <c r="H155" t="n">
         <v>1.5</v>
@@ -12972,7 +12972,7 @@
         <v>0.007</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0074728152229708</v>
+        <v>0.0074733763064494</v>
       </c>
       <c r="H156" t="n">
         <v>0.028</v>
@@ -13053,7 +13053,7 @@
         <v>0.007</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0074728152229708</v>
+        <v>0.0074733763064494</v>
       </c>
       <c r="H157" t="n">
         <v>0.028</v>
@@ -13474,7 +13474,7 @@
         <v>0.01002</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0099381677250903</v>
+        <v>0.0099412436483143</v>
       </c>
       <c r="H162" t="n">
         <v>0.0238901725376698</v>
@@ -13555,7 +13555,7 @@
         <v>0.01002</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0099381677250903</v>
+        <v>0.0099412436483143</v>
       </c>
       <c r="H163" t="n">
         <v>0.0238901725376698</v>
@@ -13636,7 +13636,7 @@
         <v>0.3285</v>
       </c>
       <c r="G164" t="n">
-        <v>0.345235871284758</v>
+        <v>0.345254922942866</v>
       </c>
       <c r="H164" t="n">
         <v>0.974</v>
@@ -13717,7 +13717,7 @@
         <v>0.3285</v>
       </c>
       <c r="G165" t="n">
-        <v>0.345235871284758</v>
+        <v>0.345254922942866</v>
       </c>
       <c r="H165" t="n">
         <v>0.974</v>
@@ -13794,7 +13794,7 @@
         <v>0.355</v>
       </c>
       <c r="G166" t="n">
-        <v>0.368438924738365</v>
+        <v>0.368453792475366</v>
       </c>
       <c r="H166" t="n">
         <v>0.985</v>
@@ -13871,7 +13871,7 @@
         <v>0.355</v>
       </c>
       <c r="G167" t="n">
-        <v>0.368438924738365</v>
+        <v>0.368453792475366</v>
       </c>
       <c r="H167" t="n">
         <v>0.985</v>
@@ -14260,7 +14260,7 @@
         <v>0.3</v>
       </c>
       <c r="G172" t="n">
-        <v>0.368019333525006</v>
+        <v>0.368166441575707</v>
       </c>
       <c r="H172" t="n">
         <v>1.5</v>
@@ -14341,7 +14341,7 @@
         <v>0.007</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0069952874875163</v>
+        <v>0.0069952860880449</v>
       </c>
       <c r="H173" t="n">
         <v>0.028</v>
@@ -14422,7 +14422,7 @@
         <v>0.007</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0069952874875163</v>
+        <v>0.0069952860880449</v>
       </c>
       <c r="H174" t="n">
         <v>0.028</v>
@@ -14843,7 +14843,7 @@
         <v>0.01015</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0101064015661784</v>
+        <v>0.0101057439628377</v>
       </c>
       <c r="H179" t="n">
         <v>0.0213052514567777</v>
@@ -14924,7 +14924,7 @@
         <v>0.01015</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0101064015661784</v>
+        <v>0.0101057439628377</v>
       </c>
       <c r="H180" t="n">
         <v>0.0213052514567777</v>
@@ -15005,7 +15005,7 @@
         <v>0.328</v>
       </c>
       <c r="G181" t="n">
-        <v>0.347051876567334</v>
+        <v>0.347065465302269</v>
       </c>
       <c r="H181" t="n">
         <v>0.851</v>
@@ -15086,7 +15086,7 @@
         <v>0.328</v>
       </c>
       <c r="G182" t="n">
-        <v>0.347051876567334</v>
+        <v>0.347065465302269</v>
       </c>
       <c r="H182" t="n">
         <v>0.851</v>
@@ -15629,7 +15629,7 @@
         <v>0.3</v>
       </c>
       <c r="G189" t="n">
-        <v>0.349310800217229</v>
+        <v>0.34947752267469</v>
       </c>
       <c r="H189" t="n">
         <v>1.5</v>
@@ -15710,7 +15710,7 @@
         <v>0.006</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0073951161234259</v>
+        <v>0.0073951146730648</v>
       </c>
       <c r="H190" t="n">
         <v>0.028</v>
@@ -15791,7 +15791,7 @@
         <v>0.006</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0073951161234259</v>
+        <v>0.0073951146730648</v>
       </c>
       <c r="H191" t="n">
         <v>0.028</v>
@@ -16374,7 +16374,7 @@
         <v>0.259</v>
       </c>
       <c r="G198" t="n">
-        <v>0.341625669342794</v>
+        <v>0.34164195160926</v>
       </c>
       <c r="H198" t="n">
         <v>0.965</v>
@@ -16455,7 +16455,7 @@
         <v>0.259</v>
       </c>
       <c r="G199" t="n">
-        <v>0.341625669342794</v>
+        <v>0.34164195160926</v>
       </c>
       <c r="H199" t="n">
         <v>0.965</v>
@@ -16968,6 +16968,1375 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.331586354275815</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.4955</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.00708761679664</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.00932</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.01418</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.00708761679664</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.00932</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.01418</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>215</v>
+      </c>
+      <c r="G209" t="n">
+        <v>889.092592592593</v>
+      </c>
+      <c r="H209" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2810.4</v>
+      </c>
+      <c r="J209" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K209" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L209" t="n">
+        <v>115</v>
+      </c>
+      <c r="M209" t="n">
+        <v>782.3200000000001</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2245.36</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>215</v>
+      </c>
+      <c r="G210" t="n">
+        <v>889.092592592593</v>
+      </c>
+      <c r="H210" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2810.4</v>
+      </c>
+      <c r="J210" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K210" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L210" t="n">
+        <v>115</v>
+      </c>
+      <c r="M210" t="n">
+        <v>782.3200000000001</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2245.36</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>215</v>
+      </c>
+      <c r="G211" t="n">
+        <v>889.092592592593</v>
+      </c>
+      <c r="H211" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2810.4</v>
+      </c>
+      <c r="J211" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K211" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L211" t="n">
+        <v>115</v>
+      </c>
+      <c r="M211" t="n">
+        <v>782.3200000000001</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2245.36</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>215</v>
+      </c>
+      <c r="G212" t="n">
+        <v>889.092592592593</v>
+      </c>
+      <c r="H212" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2810.4</v>
+      </c>
+      <c r="J212" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K212" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L212" t="n">
+        <v>115</v>
+      </c>
+      <c r="M212" t="n">
+        <v>782.3200000000001</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2245.36</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.009769999999999999</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.0103433778646183</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.026870271712317</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.01967</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.00768</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.01551</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.009769999999999999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0103433778646183</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.026870271712317</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.01967</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.00768</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.01551</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.326820506268691</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.8216</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.64228</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.74834</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.326820506268691</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.8216</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.64228</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.74834</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.349592592592593</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.8378</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.67064</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.7759</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.349592592592593</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.8378</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.67064</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.7759</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.560925925925926</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.7992</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.560925925925926</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.7992</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.0552777777777778</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.12126</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ohura at Tokorima</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.0552777777777778</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.12126</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1776199</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5690414</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whai_4b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
+++ b/state_results/Rivers/OhuraatTokorima_85b0efc506.xlsx
@@ -813,10 +813,10 @@
         <v>613</v>
       </c>
       <c r="G5" t="n">
-        <v>1819.82275693752</v>
+        <v>2006.82880395907</v>
       </c>
       <c r="H5" t="n">
-        <v>16200</v>
+        <v>24944.2418256671</v>
       </c>
       <c r="I5" t="n">
         <v>11880</v>
@@ -898,10 +898,10 @@
         <v>613</v>
       </c>
       <c r="G6" t="n">
-        <v>1819.82275693752</v>
+        <v>2006.82880395907</v>
       </c>
       <c r="H6" t="n">
-        <v>16200</v>
+        <v>24944.2418256671</v>
       </c>
       <c r="I6" t="n">
         <v>11880</v>
@@ -983,10 +983,10 @@
         <v>613</v>
       </c>
       <c r="G7" t="n">
-        <v>1819.82275693752</v>
+        <v>2006.82880395907</v>
       </c>
       <c r="H7" t="n">
-        <v>16200</v>
+        <v>24944.2418256671</v>
       </c>
       <c r="I7" t="n">
         <v>11880</v>
@@ -1068,10 +1068,10 @@
         <v>613</v>
       </c>
       <c r="G8" t="n">
-        <v>1819.82275693752</v>
+        <v>2006.82880395907</v>
       </c>
       <c r="H8" t="n">
-        <v>16200</v>
+        <v>24944.2418256671</v>
       </c>
       <c r="I8" t="n">
         <v>11880</v>
